--- a/On-the-job and self-study.xlsx
+++ b/On-the-job and self-study.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t xml:space="preserve">On-the-job and self-guided learning hours log.</t>
   </si>
@@ -111,15 +111,31 @@
   <si>
     <t xml:space="preserve">BPP School of Tech apprenticeship meet-up</t>
   </si>
+  <si>
+    <t xml:space="preserve">Automate the boring stuff with Python</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Getting Started with Programming in Python</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copilot Deep Dive: Excel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS Academy: Cloud Concepts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWS Academy: Cloud Economics and billing</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_-\£* #,##0.00_-;&quot;-£&quot;* #,##0.00_-;_-\£* \-??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -346,32 +362,36 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -383,7 +403,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -432,6 +452,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="6" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="4" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="5" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -714,576 +742,611 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
+      <selection pane="topLeft" activeCell="J19" activeCellId="0" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="44.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="24.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="44.98"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="77.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="E4" s="4" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="E5" s="4" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="E5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7" t="n">
+      <c r="C6" s="7"/>
+      <c r="D6" s="8" t="n">
         <f aca="false">SUM(B9:E51)</f>
+        <v>3.5</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="10" t="n">
+        <f aca="false">SUM(F9:H51)</f>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="17" t="n">
+        <v>45707</v>
+      </c>
+      <c r="B9" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="9" t="n">
-        <f aca="false">SUM(F9:H51)</f>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="21"/>
+      <c r="J9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="17" t="n">
+        <v>45701</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="22" t="n">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="n">
-        <v>45707</v>
-      </c>
-      <c r="B9" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
-      <c r="J9" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="n">
-        <v>45701</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="21" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J10" s="0" t="s">
+      <c r="J10" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="22"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
+      <c r="A11" s="23" t="n">
+        <v>45797</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
+      <c r="J11" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
+      <c r="A12" s="23" t="n">
+        <v>45804</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="21"/>
+      <c r="J12" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="22"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20"/>
+      <c r="A13" s="23" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="21"/>
+      <c r="J13" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="22"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
+      <c r="A14" s="23" t="n">
+        <v>45864</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="22"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
+      <c r="A15" s="23" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="22"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="22"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21"/>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="22"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="20"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="21"/>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="22"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="20"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="21"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="22"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="21"/>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="22"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="20"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="21"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="22"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="20"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="21"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="22"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="20"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="21"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="22"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="20"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="21"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="22"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="20"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="21"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="22"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="20"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="21"/>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="22"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="20"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="21"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="22"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="20"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="21"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="22"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="20"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="21"/>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="22"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="20"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="21"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="22"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="20"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="21"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="22"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="20"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="21"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="22"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="20"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="21"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="22"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="20"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="21"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="22"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="20"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="21"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="22"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="20"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="21"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="22"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="20"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="21"/>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="22"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="20"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="21"/>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="22"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="20"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="21"/>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="22"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="20"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="21"/>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="22"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="20"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="21"/>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="22"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="20"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="21"/>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="22"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="20"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="21"/>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="22"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="20"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="21"/>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="22"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="20"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="21"/>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="22"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="20"/>
+      <c r="A46" s="25"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="21"/>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="22"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="20"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="21"/>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="22"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="20"/>
+      <c r="A48" s="25"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="21"/>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="22"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="20"/>
+      <c r="A49" s="25"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="21"/>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="22"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="20"/>
+      <c r="A50" s="25"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="21"/>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="23"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="26"/>
+      <c r="A51" s="26"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="11">
